--- a/database.xlsx
+++ b/database.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -49,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -344,10 +345,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B27:K34"/>
+  <dimension ref="B27:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -404,75 +405,68 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>9</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>06/18/2020</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>$601.28</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Cake</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>$150.00</t>
+        </is>
+      </c>
+    </row>
     <row r="30">
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>hello</t>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Drink</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>$301.28</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Sunday</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>10</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>06/14/2020</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>800</v>
-      </c>
       <c r="H31" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>฿150.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Cake</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>฿150.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Drink</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="H34" t="inlineStr">
         <is>
           <t>Buy 7-11</t>
         </is>
